--- a/Activity Report.xlsx
+++ b/Activity Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandi.Kurniawan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devels\upskill\++\Skripsi-SistemPrediksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B6B049-594F-4352-9C5B-C8D296993369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCC6F4-32E9-4178-A0F0-7C5F24E5A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
+    <workbookView xWindow="4460" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Tanggal</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Project sharing, installasi dev tools dan cara run aplikasi</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -174,10 +180,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -211,12 +217,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8768EAF-27C0-4A9B-944C-818B32033BED}" name="Table2" displayName="Table2" ref="A3:C78" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8768EAF-27C0-4A9B-944C-818B32033BED}" name="Table2" displayName="Table2" ref="A3:C78" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A3:C78" xr:uid="{B8768EAF-27C0-4A9B-944C-818B32033BED}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{02477A73-584D-4751-89DA-195D41DDED33}" name="Tanggal"/>
     <tableColumn id="2" xr3:uid="{D2617F21-3A04-4BFB-A805-C8834C8FF4FA}" name="Aktifitas"/>
-    <tableColumn id="3" xr3:uid="{FFB0264D-8950-440A-B850-C30963F2DDDD}" name="Durasi (menit)" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FFB0264D-8950-440A-B850-C30963F2DDDD}" name="Durasi (menit)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,20 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5029001D-A95D-4234-8B51-BB29B959CA11}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44905</v>
       </c>
@@ -553,8 +560,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="AL2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44909</v>
       </c>
@@ -564,8 +574,11 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="AL3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44913</v>
       </c>
@@ -575,8 +588,19 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C21" xr:uid="{BF4B29C4-C63B-4FA8-BC47-B256AC95FE48}">
+      <formula1>$AL$2:$AL$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{FDEE10FE-0757-4597-96D5-E32CED300F7B}">
+      <formula1>$AL$1:$AL$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -588,15 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A270A0-1C0D-4975-BC77-8041C533A9AE}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/Activity Report.xlsx
+++ b/Activity Report.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devels\upskill\++\Skripsi-SistemPrediksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCC6F4-32E9-4178-A0F0-7C5F24E5A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2D3C6-4E13-4AEC-95F0-806560B32EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1800" windowWidth="14400" windowHeight="7360" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request" sheetId="2" r:id="rId1"/>
     <sheet name="Acitivity" sheetId="3" r:id="rId2"/>
+    <sheet name="Evidence" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Tanggal</t>
   </si>
@@ -121,6 +122,57 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>1. Login</t>
+  </si>
+  <si>
+    <t>2. Master Barang</t>
+  </si>
+  <si>
+    <t>3. Master Satuan</t>
+  </si>
+  <si>
+    <t>4. Permintaan</t>
+  </si>
+  <si>
+    <t>5.Apriori</t>
+  </si>
+  <si>
+    <t>a. Lihat data, data tidak ditemukan</t>
+  </si>
+  <si>
+    <t>dan dilakukan proses dengan nilai support yang kecil</t>
+  </si>
+  <si>
+    <t>c. Proses Apriori, normal</t>
+  </si>
+  <si>
+    <t>b. Lihat data, hasil tidak komprehensif karena data permintaan sedikit, variasi barang sangat kurang,</t>
+  </si>
+  <si>
+    <t>d. Proses Apriori, gagal karena support terlalu kecil, data permintaan sedikit tetapi barang yang diminta sangat banyak</t>
+  </si>
+  <si>
+    <t>e. Proses Apriori, gagal karena support terlalu besar, data permintaan tidak mencukupi</t>
+  </si>
+  <si>
+    <t>5. Moving Average</t>
+  </si>
+  <si>
+    <t>a. Lihat Data, data tidak ditemukan</t>
+  </si>
+  <si>
+    <t>e. Proses Moving Average, sebagian data tidak diproses karena total permintaan yang sedikit</t>
+  </si>
+  <si>
+    <t>d. Proses Moving Average, gagal karena tidak ada data yang diproses total permintaan per periode lebih kecil dibanding periode pendukung</t>
+  </si>
+  <si>
+    <t>c. Proses Moving Average, gagal karena data barang tidak ditemukan karena proses apriori belum dilakukan terhadap data permintaan</t>
+  </si>
+  <si>
+    <t>b. Proses Moving Average, normal</t>
   </si>
 </sst>
 </file>
@@ -202,6 +254,851 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9615B0E0-B863-2B84-80EF-F7ADEBC9204C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="184150"/>
+          <a:ext cx="5400000" cy="2739375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1057AA-BC6F-7986-15EB-86DCD05414BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3314701"/>
+          <a:ext cx="5400000" cy="2345625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C0ECC5-230B-49EE-82C0-94E573722463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6076950"/>
+          <a:ext cx="5400000" cy="2354062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>155650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E94F85-D3AC-ABD0-AE7F-0DF9944CAEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8839200"/>
+          <a:ext cx="5400000" cy="2733750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>182162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2148F2DA-CC73-4D44-A433-2F73FF41B507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12153900"/>
+          <a:ext cx="5400000" cy="2207812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529550</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>167300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC4935D-F2E4-43DD-962B-ECC58F23DA41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="13995400"/>
+          <a:ext cx="5406350" cy="6428400"/>
+          <a:chOff x="6096000" y="3130550"/>
+          <a:chExt cx="5406350" cy="6428400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8A2F04-871B-33B1-DFDA-1C29DA25A48B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6096000" y="3130550"/>
+            <a:ext cx="5400000" cy="1637658"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B1B097-AC37-C4B6-94CA-124662F88DB5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6102350" y="4368800"/>
+            <a:ext cx="5400000" cy="2270870"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Picture 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0ED413E-9C45-7B08-09F5-689616C1A459}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6102350" y="6521450"/>
+            <a:ext cx="5400000" cy="3037500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>91100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D0FBD-F662-3C83-20CA-824F68E0C063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21361400"/>
+          <a:ext cx="5400000" cy="3037500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>173724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F63E182-1DF7-2CBE-8CDE-309EAFA7C0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24676100"/>
+          <a:ext cx="5400000" cy="2199374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>176537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D25E34-E387-B3D9-8941-A809CD76AE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27070050"/>
+          <a:ext cx="5400000" cy="2202187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>176537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4A4443-D3D5-0710-F27E-CFE72BDE859E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28911550"/>
+          <a:ext cx="5400000" cy="2202187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>68462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF506433-A51D-492C-99E2-6FB953DE6EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38487350"/>
+          <a:ext cx="5400000" cy="2646562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>179350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118DFB1D-0930-4DAC-A070-CB9A6400C1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36093400"/>
+          <a:ext cx="5400000" cy="2205000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>178834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B71DF99-BB8C-42EB-956B-990C15646C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33699450"/>
+          <a:ext cx="5400000" cy="2204484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>147074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC61E24-B684-44E6-4046-B67C65C985D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31305500"/>
+          <a:ext cx="5400000" cy="2356874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523200</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>75362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70462AFF-E7BD-CBA8-9284-F46146825AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33661350"/>
+          <a:ext cx="5400000" cy="2691562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5029001D-A95D-4234-8B51-BB29B959CA11}">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -780,4 +1677,105 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF7932-0C0A-4A04-B32E-AE60AC43284F}">
+  <dimension ref="A1:A225"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Activity Report.xlsx
+++ b/Activity Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devels\upskill\++\Skripsi-SistemPrediksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96C774-03FF-4EA8-9B4C-6DA193C7D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9919B3-D5E8-481F-A030-9263D7FDD340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2140" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{DCD5F5CA-E4BE-4448-B88C-BBF8CC34712D}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Tanggal</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Project documentation</t>
+  </si>
+  <si>
+    <t>Move unit header to the left, hide dashboard menu</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>remaining</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A270A0-1C0D-4975-BC77-8041C533A9AE}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,21 +634,29 @@
     <col min="2" max="2" width="54.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(Table2[Durasi (menit)])/60</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <f>7.125</f>
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -649,8 +666,15 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <f>C2-F2</f>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44909</v>
       </c>
@@ -661,7 +685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -669,7 +693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -677,7 +701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -685,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -693,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44910</v>
       </c>
@@ -704,7 +728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -712,7 +736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44911</v>
       </c>
@@ -723,7 +747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44912</v>
       </c>
@@ -734,7 +758,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -742,7 +766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -750,7 +774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44913</v>
       </c>
@@ -761,7 +785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -786,6 +810,17 @@
       </c>
       <c r="C18" s="5">
         <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
